--- a/src/endpoints/excel/out.xlsx
+++ b/src/endpoints/excel/out.xlsx
@@ -141,6 +141,57 @@
   </si>
   <si>
     <t xml:space="preserve">https://firebasestorage.googleapis.com/v0/b/cfs-racing-club.appspot.com/o/RavenStar%20AKC%20Reg.%20papers.pdf?alt=media&amp;token=6e68a926-70e4-430e-a7ca-a2075aea1eb5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Sanction registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 9th 8:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donjenkins23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">727-200-0180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710 sw 85th st </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cha-cha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eiag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">982126052048910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whuppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitesse sandstorm cha-cha-twist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://firebasestorage.googleapis.com/v0/b/cfs-racing-club.appspot.com/o/CKC%20Registration.pdf?alt=media&amp;token=a29ad9d2-e5ef-4c24-ba65-8bc04d8147b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanctioned Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 9th 8:22</t>
   </si>
 </sst>
 </file>
@@ -589,6 +640,92 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
